--- a/Mifos Automation Excels/Client/4584-RBI-DISBLOANON02JAN-INDCOLLSHEETON16JAN-REPAYON16JAN.xlsx
+++ b/Mifos Automation Excels/Client/4584-RBI-DISBLOANON02JAN-INDCOLLSHEETON16JAN-REPAYON16JAN.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -582,14 +582,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,8 +703,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -754,8 +754,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -781,15 +781,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
@@ -824,18 +827,19 @@
       <c r="L1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9">
@@ -862,8 +866,9 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -898,18 +903,19 @@
       <c r="L3" s="8">
         <v>856.41</v>
       </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
+      <c r="M3" s="8"/>
       <c r="N3" s="8">
         <v>0</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -942,18 +948,19 @@
       <c r="L4" s="8">
         <v>0</v>
       </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
+      <c r="M4" s="8"/>
       <c r="N4" s="8">
         <v>0</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8">
-        <v>854.48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8">
+        <v>854.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -986,18 +993,19 @@
       <c r="L5" s="8">
         <v>0</v>
       </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
+      <c r="M5" s="8"/>
       <c r="N5" s="8">
         <v>0</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8">
-        <v>854.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8">
+        <v>854.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1030,18 +1038,19 @@
       <c r="L6" s="8">
         <v>0</v>
       </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
+      <c r="M6" s="8"/>
       <c r="N6" s="8">
         <v>0</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8">
-        <v>854.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8">
+        <v>854.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1074,18 +1083,19 @@
       <c r="L7" s="8">
         <v>0</v>
       </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
+      <c r="M7" s="8"/>
       <c r="N7" s="8">
         <v>0</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8">
-        <v>854.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8">
+        <v>854.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1118,18 +1128,19 @@
       <c r="L8" s="8">
         <v>0</v>
       </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
+      <c r="M8" s="8"/>
       <c r="N8" s="8">
         <v>0</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8">
-        <v>854.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8">
+        <v>854.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1162,18 +1173,19 @@
       <c r="L9" s="8">
         <v>0</v>
       </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
+      <c r="M9" s="8"/>
       <c r="N9" s="8">
         <v>0</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8">
-        <v>854.48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8">
+        <v>854.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1206,18 +1218,19 @@
       <c r="L10" s="8">
         <v>0</v>
       </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
+      <c r="M10" s="8"/>
       <c r="N10" s="8">
         <v>0</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8">
-        <v>854.48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8">
+        <v>854.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1250,18 +1263,19 @@
       <c r="L11" s="8">
         <v>0</v>
       </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
+      <c r="M11" s="8"/>
       <c r="N11" s="8">
         <v>0</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8">
-        <v>854.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8">
+        <v>854.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1294,18 +1308,19 @@
       <c r="L12" s="8">
         <v>0</v>
       </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
+      <c r="M12" s="8"/>
       <c r="N12" s="8">
         <v>0</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8">
-        <v>854.48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8">
+        <v>854.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1338,18 +1353,19 @@
       <c r="L13" s="8">
         <v>0</v>
       </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
+      <c r="M13" s="8"/>
       <c r="N13" s="8">
         <v>0</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8">
-        <v>854.48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8">
+        <v>854.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1382,14 +1398,15 @@
       <c r="L14" s="8">
         <v>0</v>
       </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
+      <c r="M14" s="8"/>
       <c r="N14" s="8">
         <v>0</v>
       </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8">
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8">
         <v>854.52</v>
       </c>
     </row>
